--- a/dist/files/xls/5000301-01-001 list-titulnyy-proektirovshchika.xlsx
+++ b/dist/files/xls/5000301-01-001 list-titulnyy-proektirovshchika.xlsx
@@ -11,6 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="Print_Area" localSheetId="0">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$A$2:$T$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ТИТУЛЬНЫЙ ЛИСТ ДП'!$A$2:$T$39</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -408,18 +409,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -433,33 +461,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -783,7 +784,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -793,18 +794,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.75" style="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
     <col min="6" max="9" width="7.625" style="1" customWidth="1"/>
-    <col min="10" max="19" width="8.75" style="1"/>
-    <col min="20" max="20" width="4.625" style="1" customWidth="1"/>
+    <col min="10" max="13" width="8.75" style="1"/>
+    <col min="14" max="14" width="12.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="1"/>
+    <col min="16" max="16" width="10.5" style="1" customWidth="1"/>
+    <col min="17" max="19" width="8.75" style="1"/>
+    <col min="20" max="20" width="3" style="1" customWidth="1"/>
     <col min="21" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
@@ -892,18 +899,18 @@
       <c r="J5" s="6"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="39" t="s">
+      <c r="M5" s="49"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="38">
+      <c r="P5" s="46"/>
+      <c r="Q5" s="47">
         <f ca="1">TODAY()</f>
         <v>43628</v>
       </c>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
       <c r="T5" s="30"/>
     </row>
     <row r="6" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
@@ -919,13 +926,13 @@
       <c r="J6" s="6"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
       <c r="T6" s="29"/>
     </row>
     <row r="7" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -973,11 +980,11 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -997,11 +1004,11 @@
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1021,11 +1028,11 @@
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1049,7 +1056,7 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="32" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="33"/>
@@ -1140,22 +1147,22 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="41" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -1166,22 +1173,22 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="41" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="4"/>
@@ -1192,22 +1199,22 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="41" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="4"/>
@@ -1218,22 +1225,22 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="41" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="4"/>
@@ -1244,13 +1251,13 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="41" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="37" t="s">
         <v>16</v>
       </c>
       <c r="K20" s="43"/>
@@ -1270,13 +1277,13 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="41" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
-      <c r="J21" s="36" t="s">
+      <c r="J21" s="37" t="s">
         <v>17</v>
       </c>
       <c r="K21" s="42"/>
@@ -1296,22 +1303,22 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="41" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
-      <c r="J22" s="36">
+      <c r="J22" s="37">
         <v>500</v>
       </c>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="4"/>
@@ -1322,22 +1329,22 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="41" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
-      <c r="J23" s="36" t="s">
+      <c r="J23" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="4"/>
@@ -1437,12 +1444,12 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1455,28 +1462,28 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="44" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="45" t="s">
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="45"/>
+      <c r="P29" s="40"/>
       <c r="Q29" s="22" t="s">
         <v>3</v>
       </c>
@@ -1517,12 +1524,12 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="46" t="s">
+      <c r="G31" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -1535,28 +1542,28 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="44" t="s">
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="45" t="s">
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="45"/>
+      <c r="P32" s="40"/>
       <c r="Q32" s="22" t="s">
         <v>3</v>
       </c>
@@ -1597,12 +1604,12 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="46" t="s">
+      <c r="G34" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -1615,28 +1622,28 @@
       <c r="T34" s="4"/>
     </row>
     <row r="35" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="44" t="s">
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="45" t="s">
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="P35" s="45"/>
+      <c r="P35" s="40"/>
       <c r="Q35" s="26" t="s">
         <v>3</v>
       </c>
@@ -1677,12 +1684,12 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -1695,28 +1702,28 @@
       <c r="T37" s="4"/>
     </row>
     <row r="38" spans="1:20" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="44" t="s">
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="45" t="s">
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="P38" s="45"/>
+      <c r="P38" s="40"/>
       <c r="Q38" s="22" t="s">
         <v>3</v>
       </c>
@@ -1752,6 +1759,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="E12:N15"/>
     <mergeCell ref="A38:J38"/>
     <mergeCell ref="K38:N38"/>
@@ -1768,32 +1801,6 @@
     <mergeCell ref="O38:P38"/>
     <mergeCell ref="G34:J34"/>
     <mergeCell ref="A35:J35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J16:Q16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
